--- a/Data/aearep-146/candidatepackages.xlsx
+++ b/Data/aearep-146/candidatepackages.xlsx
@@ -43,10 +43,10 @@
     <t>median</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
     <t>combine</t>
-  </si>
-  <si>
-    <t>bys</t>
   </si>
   <si>
     <t>mc</t>
@@ -214,7 +214,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -226,7 +226,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -238,7 +238,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -250,10 +250,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>565</v>
+        <v>499</v>
       </c>
       <c r="C6">
-        <v>0.18733422458171844</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D6"/>
     </row>
@@ -262,10 +262,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C7">
-        <v>0.18766577541828156</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D7"/>
     </row>
@@ -274,10 +274,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C8">
-        <v>0.24701590836048126</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D8"/>
     </row>
@@ -286,10 +286,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1133</v>
+        <v>955</v>
       </c>
       <c r="C9">
-        <v>0.37566313147544861</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D9"/>
     </row>
@@ -298,10 +298,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1423</v>
+        <v>1306</v>
       </c>
       <c r="C10">
-        <v>0.47181698679924011</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D10"/>
     </row>
@@ -310,10 +310,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1472</v>
+        <v>1414</v>
       </c>
       <c r="C11">
-        <v>0.48806366324424744</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D11"/>
     </row>
@@ -322,10 +322,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1755</v>
+        <v>1767</v>
       </c>
       <c r="C12">
-        <v>0.58189654350280762</v>
+        <v>0.58413225412368774</v>
       </c>
       <c r="D12"/>
     </row>
@@ -334,10 +334,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2424</v>
+        <v>2436</v>
       </c>
       <c r="C13">
-        <v>0.80371350049972534</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D13"/>
     </row>
